--- a/assets/upload/Laporan Peminjaman Rekam Medis - .xlsx
+++ b/assets/upload/Laporan Peminjaman Rekam Medis - .xlsx
@@ -15,24 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Medrec</t>
-  </si>
-  <si>
-    <t>Pasien</t>
-  </si>
-  <si>
-    <t>Peminjam</t>
-  </si>
-  <si>
-    <t>Tgl Janji Kembali</t>
-  </si>
-  <si>
-    <t>Tgl Pinjam</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MEDREC</t>
+  </si>
+  <si>
+    <t>NAMA PASIEN</t>
+  </si>
+  <si>
+    <t>NAMA PEMINJAM</t>
+  </si>
+  <si>
+    <t>TGL PINJAM</t>
+  </si>
+  <si>
+    <t>TGL JANJI KEMBALI</t>
+  </si>
+  <si>
+    <t>KEPERLUAN</t>
+  </si>
+  <si>
+    <t>DISERAHKAN OLEH</t>
+  </si>
+  <si>
+    <t>TGL PENGEMBALIAN</t>
+  </si>
+  <si>
+    <t>DIKEMBALIKAN OLEH</t>
+  </si>
+  <si>
+    <t>TRANS ID</t>
   </si>
   <si>
     <t>ADITYA RESTU FAUZI</t>
@@ -41,15 +56,36 @@
     <t>EDP RSMKB</t>
   </si>
   <si>
+    <t>19.03.2022</t>
+  </si>
+  <si>
     <t>21-MAR-22</t>
   </si>
   <si>
-    <t>19.03.2022</t>
+    <t>tes 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAFTUH ZAIDI</t>
+  </si>
+  <si>
+    <t>TR000001</t>
   </si>
   <si>
     <t>TES EDP</t>
   </si>
   <si>
+    <t>tes 2</t>
+  </si>
+  <si>
+    <t>04-APR-22</t>
+  </si>
+  <si>
+    <t>PLAY_89898989</t>
+  </si>
+  <si>
+    <t>TR000002</t>
+  </si>
+  <si>
     <t>YUYUN MULYANI</t>
   </si>
   <si>
@@ -59,30 +95,96 @@
     <t>23-MAR-22</t>
   </si>
   <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>05-APR-22</t>
+  </si>
+  <si>
+    <t>PLAY_55555555</t>
+  </si>
+  <si>
+    <t>TR000003</t>
+  </si>
+  <si>
     <t>MAFTUH ZAIDI</t>
   </si>
   <si>
     <t>01-JAN-01</t>
   </si>
   <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>PLAY_00011712</t>
+  </si>
+  <si>
+    <t>TR000005</t>
+  </si>
+  <si>
     <t>TEST IT MIKA BKS</t>
   </si>
   <si>
     <t>19-MAR-22</t>
   </si>
   <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>TR000006</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>TR000007</t>
+  </si>
+  <si>
+    <t>TR000008</t>
+  </si>
+  <si>
+    <t>testt</t>
+  </si>
+  <si>
+    <t>TR000009</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>TR000010</t>
+  </si>
+  <si>
     <t>AVIEV AVIVY</t>
   </si>
   <si>
+    <t>tess</t>
+  </si>
+  <si>
+    <t>TR000011</t>
+  </si>
+  <si>
+    <t>TR000012</t>
+  </si>
+  <si>
+    <t>26.03.2022</t>
+  </si>
+  <si>
     <t>26-MAR-22</t>
   </si>
   <si>
-    <t>26.03.2022</t>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>TR000046</t>
   </si>
   <si>
     <t>TEDY TN</t>
   </si>
   <si>
+    <t>TR000048</t>
+  </si>
+  <si>
     <t>DEVI PUTRA TN</t>
   </si>
   <si>
@@ -92,13 +194,25 @@
     <t>25-JUL-85</t>
   </si>
   <si>
+    <t>TR000049</t>
+  </si>
+  <si>
     <t>NIRWAN ROSANDI TN</t>
   </si>
   <si>
     <t>18-JUL-89</t>
   </si>
   <si>
+    <t>TR000050</t>
+  </si>
+  <si>
     <t>MUSLIM</t>
+  </si>
+  <si>
+    <t>TESTTT</t>
+  </si>
+  <si>
+    <t>TR000051</t>
   </si>
 </sst>
 </file>
@@ -434,7 +548,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +575,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,19 +599,30 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,19 +630,34 @@
         <v>898989</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -510,19 +665,34 @@
         <v>777777</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -530,19 +700,34 @@
         <v>898989</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -550,19 +735,30 @@
         <v>898989</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -570,19 +766,30 @@
         <v>898989</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -590,19 +797,30 @@
         <v>898989</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -610,19 +828,30 @@
         <v>123456</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -630,19 +859,30 @@
         <v>898989</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -650,19 +890,30 @@
         <v>898989</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -670,19 +921,30 @@
         <v>898989</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -690,19 +952,30 @@
         <v>898989</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -710,19 +983,30 @@
         <v>235566</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -730,19 +1014,30 @@
         <v>1012255</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -750,19 +1045,30 @@
         <v>1032552</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -770,16 +1076,27 @@
         <v>1021455</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/assets/upload/Laporan Peminjaman Rekam Medis - .xlsx
+++ b/assets/upload/Laporan Peminjaman Rekam Medis - .xlsx
@@ -137,10 +137,10 @@
     <t>test7</t>
   </si>
   <si>
+    <t>TR000008</t>
+  </si>
+  <si>
     <t>TR000007</t>
-  </si>
-  <si>
-    <t>TR000008</t>
   </si>
   <si>
     <t>testt</t>
